--- a/src/xlsx/data.xlsx
+++ b/src/xlsx/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeyellowCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1A961-5747-A242-B917-91572CA94646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC889D0-51EE-AD4E-B008-72558DB25948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="760" windowWidth="20440" windowHeight="20480" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
+    <workbookView xWindow="10200" yWindow="760" windowWidth="20440" windowHeight="20420" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="2207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="2208">
   <si>
     <t>data/pokemon/names.asm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7615,10 +7615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>彩色@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Makefile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7644,6 +7640,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 第   次 登入名人堂@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日版@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美版@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16375,8 +16379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9419DE-5B49-5F4A-B230-D7BA1B4ADB25}">
   <dimension ref="A1:XFC358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -16697,7 +16701,7 @@
         <v>1147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="E39" t="s">
         <v>1285</v>
@@ -16852,7 +16856,7 @@
         <v>2180</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2199</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -16860,7 +16864,7 @@
         <v>2181</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2183</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -30525,7 +30529,7 @@
         <v>1495</v>
       </c>
       <c r="C232" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -31837,23 +31841,23 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="12" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>2201</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="12" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>2203</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="22" spans="1:4">

--- a/src/xlsx/data.xlsx
+++ b/src/xlsx/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeyellowCHS/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Qsync/Pokemon_Projects/pokeyellowCHS/src/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1A961-5747-A242-B917-91572CA94646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23575548-2D73-6142-A204-DDE85529BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="760" windowWidth="20440" windowHeight="20480" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
+    <workbookView xWindow="14120" yWindow="760" windowWidth="25400" windowHeight="23940" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
@@ -7519,10 +7519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"PM NAMES:"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7639,12 +7635,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结束　　　　　　v110@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 第   次 登入名人堂@</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束　　　　　　v120@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄</t>
   </si>
 </sst>
 </file>
@@ -7827,9 +7826,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7867,7 +7866,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7973,7 +7972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8115,7 +8114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10359,7 +10358,7 @@
         <v>320</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>322</v>
@@ -10376,7 +10375,7 @@
         <v>323</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>325</v>
@@ -14634,8 +14633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B0612F-D8CC-3541-8920-4018D9285493}">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -15153,7 +15152,7 @@
         <v>1158</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1898</v>
+        <v>1837</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>1592</v>
@@ -16375,8 +16374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9419DE-5B49-5F4A-B230-D7BA1B4ADB25}">
   <dimension ref="A1:XFC358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -16646,10 +16645,10 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C33" t="s">
         <v>2178</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -16686,10 +16685,10 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>2176</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -16849,34 +16848,34 @@
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>2182</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>2184</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -30525,7 +30524,7 @@
         <v>1495</v>
       </c>
       <c r="C232" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -30748,7 +30747,7 @@
         <v>1517</v>
       </c>
       <c r="C262" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F262" t="s">
         <v>1518</v>
@@ -30770,7 +30769,7 @@
         <v>2136</v>
       </c>
       <c r="C264" t="s">
-        <v>2175</v>
+        <v>2206</v>
       </c>
       <c r="F264" t="s">
         <v>1521</v>
@@ -30839,7 +30838,7 @@
         <v>449</v>
       </c>
       <c r="C270" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -30858,7 +30857,7 @@
         <v>2137</v>
       </c>
       <c r="C272" t="s">
-        <v>2175</v>
+        <v>2206</v>
       </c>
       <c r="F272" t="s">
         <v>1521</v>
@@ -30924,7 +30923,7 @@
         <v>1517</v>
       </c>
       <c r="C278" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F278" t="s">
         <v>1518</v>
@@ -30946,7 +30945,7 @@
         <v>2136</v>
       </c>
       <c r="C280" t="s">
-        <v>2175</v>
+        <v>2206</v>
       </c>
       <c r="F280" t="s">
         <v>1521</v>
@@ -31015,7 +31014,7 @@
         <v>449</v>
       </c>
       <c r="C286" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -31034,7 +31033,7 @@
         <v>2137</v>
       </c>
       <c r="C288" t="s">
-        <v>2175</v>
+        <v>2206</v>
       </c>
       <c r="F288" t="s">
         <v>1521</v>
@@ -31792,7 +31791,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>449</v>
@@ -31800,34 +31799,34 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C14" t="s">
         <v>2188</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="13" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C15" t="s">
         <v>2190</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="12" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C16" t="s">
         <v>2192</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C17" t="s">
         <v>2194</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -31837,23 +31836,23 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="12" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>2201</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="12" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>2203</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="22" spans="1:4">

--- a/src/xlsx/data.xlsx
+++ b/src/xlsx/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeyellowCHS/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/pokeyellowCHS/buildYJP/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC889D0-51EE-AD4E-B008-72558DB25948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADCDF73-A369-694F-84DC-EABFA90F27B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10200" yWindow="760" windowWidth="20440" windowHeight="20420" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
@@ -7519,10 +7519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"PM NAMES:"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7635,10 +7631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结束　　　　　　v110@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 第   次 登入名人堂@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7648,6 +7640,13 @@
   </si>
   <si>
     <t>美版@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄</t>
+  </si>
+  <si>
+    <t>结束　　　　　　v120@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7831,9 +7830,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7871,7 +7870,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7977,7 +7976,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8119,7 +8118,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10363,7 +10362,7 @@
         <v>320</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>322</v>
@@ -10380,7 +10379,7 @@
         <v>323</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>325</v>
@@ -16379,8 +16378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9419DE-5B49-5F4A-B230-D7BA1B4ADB25}">
   <dimension ref="A1:XFC358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -16650,10 +16649,10 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C33" t="s">
         <v>2178</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -16690,10 +16689,10 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>2176</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -16701,7 +16700,7 @@
         <v>1147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="E39" t="s">
         <v>1285</v>
@@ -16853,34 +16852,34 @@
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>2182</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>2184</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -30529,7 +30528,7 @@
         <v>1495</v>
       </c>
       <c r="C232" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -30752,7 +30751,7 @@
         <v>1517</v>
       </c>
       <c r="C262" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F262" t="s">
         <v>1518</v>
@@ -30774,7 +30773,7 @@
         <v>2136</v>
       </c>
       <c r="C264" t="s">
-        <v>2175</v>
+        <v>2206</v>
       </c>
       <c r="F264" t="s">
         <v>1521</v>
@@ -30843,7 +30842,7 @@
         <v>449</v>
       </c>
       <c r="C270" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -30862,7 +30861,7 @@
         <v>2137</v>
       </c>
       <c r="C272" t="s">
-        <v>2175</v>
+        <v>2206</v>
       </c>
       <c r="F272" t="s">
         <v>1521</v>
@@ -30928,7 +30927,7 @@
         <v>1517</v>
       </c>
       <c r="C278" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F278" t="s">
         <v>1518</v>
@@ -30950,7 +30949,7 @@
         <v>2136</v>
       </c>
       <c r="C280" t="s">
-        <v>2175</v>
+        <v>2206</v>
       </c>
       <c r="F280" t="s">
         <v>1521</v>
@@ -31019,7 +31018,7 @@
         <v>449</v>
       </c>
       <c r="C286" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -31038,7 +31037,7 @@
         <v>2137</v>
       </c>
       <c r="C288" t="s">
-        <v>2175</v>
+        <v>2206</v>
       </c>
       <c r="F288" t="s">
         <v>1521</v>
@@ -31796,7 +31795,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>449</v>
@@ -31804,34 +31803,34 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C14" t="s">
         <v>2188</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="13" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C15" t="s">
         <v>2190</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="12" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C16" t="s">
         <v>2192</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C17" t="s">
         <v>2194</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -31841,23 +31840,23 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="12" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>2200</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>2202</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="22" spans="1:4">
